--- a/KaryotypingPinnacle/CNN/theWholeCount_Sum.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholeCount_Sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chuan\Documents\GitHub\MachineLearning\KaryotypingPinnacle\CNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E8D0D9-8DDB-445D-9317-2B57CB8EEB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C8D5A0-06E8-4510-B18F-C02BEF09831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,18 +524,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -554,7 +555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -565,7 +566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -576,7 +577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -587,7 +588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -595,10 +596,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -609,7 +610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -620,7 +621,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -630,9 +631,8 @@
       <c r="C9" s="2">
         <v>71</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -640,10 +640,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -654,7 +654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -665,7 +665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -676,7 +676,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -687,7 +687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -698,7 +698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -709,7 +709,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -720,7 +720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -731,7 +731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -739,10 +739,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -753,7 +753,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -764,7 +764,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -775,7 +775,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -786,7 +786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -794,10 +794,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -808,7 +808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -816,10 +816,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -827,10 +827,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -838,10 +838,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -849,10 +849,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -860,10 +860,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -871,10 +871,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -882,10 +882,10 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -896,10 +896,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f>SUM(C2:C33)</f>
-        <v>1967</v>
+        <v>2729</v>
       </c>
     </row>
   </sheetData>
